--- a/combined_timetable.xlsx
+++ b/combined_timetable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="175">
   <si>
     <t>Monday</t>
   </si>
@@ -65,6 +65,9 @@
     <t>5:00</t>
   </si>
   <si>
+    <t>Branch: A7</t>
+  </si>
+  <si>
     <t>Branch: B1A7</t>
   </si>
   <si>
@@ -80,246 +83,294 @@
     <t>Branch: B5A7</t>
   </si>
   <si>
+    <t>CHEMISTRY LABORATORY Lab</t>
+  </si>
+  <si>
+    <t>GENERAL CHEMISTRY Tut</t>
+  </si>
+  <si>
+    <t>MATHEMATICS I Lecture</t>
+  </si>
+  <si>
+    <t>GENERAL BIOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>GENERAL CHEMISTRY Lecture</t>
+  </si>
+  <si>
+    <t>PROBABILITY &amp; STATISTICS Lecture</t>
+  </si>
+  <si>
+    <t>MECHANICS OSCILLATIONS &amp;WAVES Lecture</t>
+  </si>
+  <si>
     <t>GENERAL BIOLOGY Tut</t>
   </si>
   <si>
-    <t>CHEMISTRY LABORATORY Lab</t>
-  </si>
-  <si>
-    <t>MATHEMATICS I Lecture</t>
-  </si>
-  <si>
     <t>PHYSICS LABORATORY Lab</t>
   </si>
   <si>
+    <t>MECHANICS OSCILLATIONS &amp;WAVES Tut</t>
+  </si>
+  <si>
+    <t>MATHEMATICS I Tut</t>
+  </si>
+  <si>
     <t>BIOLOGY LABORATORY Lab</t>
   </si>
   <si>
-    <t>GENERAL BIOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>GENERAL CHEMISTRY Lecture</t>
-  </si>
-  <si>
-    <t>MATHEMATICS I Tut</t>
-  </si>
-  <si>
-    <t>PROBABILITY &amp; STATISTICS Lecture</t>
-  </si>
-  <si>
-    <t>MECHANICS OSCILLATIONS &amp;WAVES Lecture</t>
-  </si>
-  <si>
-    <t>GENERAL CHEMISTRY Tut</t>
-  </si>
-  <si>
     <t>PROBABILITY &amp; STATISTICS Tut</t>
   </si>
   <si>
-    <t>MECHANICS OSCILLATIONS &amp;WAVES Tut</t>
+    <t>OBJECT ORIENTED PROGRAMMING Lecture</t>
+  </si>
+  <si>
+    <t>DISCR STRUC FOR COMP SCI Lecture</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL CHEMISTRY Lecture</t>
   </si>
   <si>
     <t>MICROBIOLOGY Lab</t>
   </si>
   <si>
+    <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Tut</t>
+  </si>
+  <si>
+    <t>INTEGRATED BIOLOGY Tut</t>
+  </si>
+  <si>
+    <t>ORGANIC CHEMISTRY I Lecture</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY I Lecture</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY II Lecture</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF ECONOMICS Lecture</t>
+  </si>
+  <si>
+    <t>FUNDA OF FIN AND ACCOUNT Lecture</t>
+  </si>
+  <si>
+    <t>MATHEMATIC &amp; STAT METHOD Lecture</t>
+  </si>
+  <si>
+    <t>ALGEBRA I Tut</t>
+  </si>
+  <si>
+    <t>OPTIMIZATION Lecture</t>
+  </si>
+  <si>
+    <t>MATHEMATICS III Lecture</t>
+  </si>
+  <si>
+    <t>ELEC, MAGNET &amp; OPTICS LAB Lab</t>
+  </si>
+  <si>
+    <t>OPTICS Tut</t>
+  </si>
+  <si>
+    <t>CLASSICAL MECHANICS Lecture</t>
+  </si>
+  <si>
+    <t>LOGIC IN COMPUTER SC Lecture</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL CHEMISTRY Tut</t>
+  </si>
+  <si>
+    <t>INTEGRATED BIOLOGY Lecture</t>
+  </si>
+  <si>
     <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Lecture</t>
   </si>
   <si>
-    <t>BIOLOGICAL CHEMISTRY Lecture</t>
-  </si>
-  <si>
-    <t>DISCR STRUC FOR COMP SCI Lecture</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>INTEGRATED BIOLOGY Lecture</t>
-  </si>
-  <si>
     <t>CELL BIOLOGY Lecture</t>
   </si>
   <si>
     <t>INORGANIC CHEMISTRY I Lecture</t>
   </si>
   <si>
-    <t>ORGANIC CHEMISTRY I Lecture</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY II Lecture</t>
+    <t>PHYSICAL CHEMISTRY I Tut</t>
+  </si>
+  <si>
+    <t>ECONOMIC ENV OF BUSINESSS Lecture</t>
   </si>
   <si>
     <t>ELEMENTARY REAL ANALYSIS Lecture</t>
   </si>
   <si>
-    <t>MATHEMATICS III Lecture</t>
+    <t>DISCREET MATHEMATICS Lecture</t>
+  </si>
+  <si>
+    <t>ALGEBRA I Lecture</t>
+  </si>
+  <si>
+    <t>MATHEMATICS III Tut</t>
+  </si>
+  <si>
+    <t>OPTICS Lecture</t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED PROGRAMMING Lab</t>
+  </si>
+  <si>
+    <t>DISCR STRUC FOR COMP SCI Tut</t>
+  </si>
+  <si>
+    <t>LOGIC IN COMPUTER SC Tut</t>
+  </si>
+  <si>
+    <t>INORGANIC CHEMISTRY I Tut</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY II Tut</t>
+  </si>
+  <si>
+    <t>ECONOMIC ENV OF BUSINESSS Tut</t>
+  </si>
+  <si>
+    <t>MATHEMATIC &amp; STAT METHOD Tut</t>
+  </si>
+  <si>
+    <t>DISCREET MATHEMATICS Tut</t>
+  </si>
+  <si>
+    <t>CLASSICAL MECHANICS Lab</t>
+  </si>
+  <si>
+    <t>ORGANIC CHEMISTRY I Tut</t>
+  </si>
+  <si>
+    <t>FUNDA OF FIN AND ACCOUNT Tut</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF ECONOMICS Tut</t>
   </si>
   <si>
     <t>OPTIMIZATION Tut</t>
   </si>
   <si>
-    <t>DISCREET MATHEMATICS Lecture</t>
-  </si>
-  <si>
-    <t>CLASSICAL MECHANICS Lab</t>
-  </si>
-  <si>
-    <t>CLASSICAL MECHANICS Lecture</t>
-  </si>
-  <si>
-    <t>OPTICS Tut</t>
-  </si>
-  <si>
-    <t>OBJECT ORIENTED PROGRAMMING Lecture</t>
-  </si>
-  <si>
-    <t>OBJECT ORIENTED PROGRAMMING Lab</t>
-  </si>
-  <si>
-    <t>LOGIC IN COMPUTER SC Lecture</t>
-  </si>
-  <si>
     <t>CELL BIOLOGY Tut</t>
   </si>
   <si>
-    <t>BIOLOGICAL CHEMISTRY Tut</t>
-  </si>
-  <si>
-    <t>ALGEBRA I Lecture</t>
-  </si>
-  <si>
-    <t>OPTIMIZATION Lecture</t>
-  </si>
-  <si>
-    <t>OPTICS Lecture</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Tut</t>
-  </si>
-  <si>
-    <t>LOGIC IN COMPUTER SC Tut</t>
-  </si>
-  <si>
-    <t>DISCREET MATHEMATICS Tut</t>
-  </si>
-  <si>
-    <t>ELEC, MAGNET &amp; OPTICS LAB Lab</t>
-  </si>
-  <si>
-    <t>INTEGRATED BIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>MATHEMATICS III Tut</t>
-  </si>
-  <si>
-    <t>DISCR STRUC FOR COMP SCI Tut</t>
-  </si>
-  <si>
-    <t>INORGANIC CHEMISTRY I Tut</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY I Lecture</t>
-  </si>
-  <si>
-    <t>ALGEBRA I Tut</t>
-  </si>
-  <si>
     <t>ELEMENTARY REAL ANALYSIS Tut</t>
   </si>
   <si>
+    <t>COMPUTER ARCHITECTURE Lecture</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGG LANG Lecture</t>
+  </si>
+  <si>
     <t>RECOMBINANT DNA TECH Lecture</t>
   </si>
   <si>
     <t>ANIMAL PHYSIOLOGY Lecture</t>
   </si>
   <si>
-    <t>PLANT PHYSIOLOGY Lecture</t>
+    <t>ORGANIC CHEMISTRY III Lecture</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY IV Lecture</t>
+  </si>
+  <si>
+    <t>INSTRU METHODS OF ANAL Lecture</t>
+  </si>
+  <si>
+    <t>ISSUES IN ECONOMIC DEVELOPMENT Tut</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL ECONOMICS Lecture</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO TOPOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>ORDINARY DIFFERENTIAL EQUATIONS Tut</t>
+  </si>
+  <si>
+    <t>NUMERICAL ANALYSIS Tut</t>
+  </si>
+  <si>
+    <t>QUANTUM MECHANICS II Lecture</t>
+  </si>
+  <si>
+    <t>COMPUTATIONAL PHYSICS Lecture</t>
+  </si>
+  <si>
+    <t>STATISTICAL MECHANICS Tut</t>
   </si>
   <si>
     <t>THEORY OF COMPUTATION Lecture</t>
   </si>
   <si>
+    <t>OPERATING SYSTEMS Lecture</t>
+  </si>
+  <si>
+    <t>ORGANIC CHEMISTRY III Tut</t>
+  </si>
+  <si>
+    <t>MONEY BANK &amp; FIN MARKETS Lecture</t>
+  </si>
+  <si>
+    <t>ISSUES IN ECONOMIC DEVELOPMENT Lecture</t>
+  </si>
+  <si>
+    <t>NUMERICAL ANALYSIS Lecture</t>
+  </si>
+  <si>
+    <t>ORDINARY DIFFERENTIAL EQUATIONS Lecture</t>
+  </si>
+  <si>
+    <t>STATISTICAL MECHANICS Lecture</t>
+  </si>
+  <si>
+    <t>COMPUTATIONAL PHYSICS Tut</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGG LANG Tut</t>
+  </si>
+  <si>
+    <t>ANIMAL PHYSIOLOGY Tut</t>
+  </si>
+  <si>
+    <t>PLANT PHYSIOLOGY Tut</t>
+  </si>
+  <si>
     <t>INSTRU METHODS OF ANAL Lab</t>
   </si>
   <si>
-    <t>PHYSICAL CHEMISTRY IV Lecture</t>
-  </si>
-  <si>
-    <t>INSTRU METHODS OF ANAL Lecture</t>
-  </si>
-  <si>
-    <t>ORGANIC CHEMISTRY III Lecture</t>
-  </si>
-  <si>
-    <t>COMPUTER ARCHITECTURE Lecture</t>
-  </si>
-  <si>
-    <t>NUMERICAL ANALYSIS Tut</t>
-  </si>
-  <si>
-    <t>ORDINARY DIFFERENTIAL EQUATIONS Lecture</t>
-  </si>
-  <si>
-    <t>ORDINARY DIFFERENTIAL EQUATIONS Tut</t>
-  </si>
-  <si>
-    <t>COMPUTATIONAL PHYSICS Lecture</t>
-  </si>
-  <si>
-    <t>COMPUTATIONAL PHYSICS Tut</t>
-  </si>
-  <si>
-    <t>RECOMBINANT DNA TECH Tut</t>
-  </si>
-  <si>
-    <t>PRINCIPLES OF PROGG LANG Lecture</t>
-  </si>
-  <si>
-    <t>OPERATING SYSTEMS Lecture</t>
-  </si>
-  <si>
     <t>PHYSICAL CHEMISTRY IV Tut</t>
   </si>
   <si>
-    <t>NUMERICAL ANALYSIS Lecture</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO TOPOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>QUANTUM MECHANICS II Lecture</t>
-  </si>
-  <si>
-    <t>STATISTICAL MECHANICS Lecture</t>
-  </si>
-  <si>
-    <t>PRINCIPLES OF PROGG LANG Tut</t>
+    <t>COMPUTER ARCHITECTURE Lab</t>
+  </si>
+  <si>
+    <t>THEORY OF COMPUTATION Tut</t>
+  </si>
+  <si>
+    <t>OPERATING SYSTEMS Tut</t>
+  </si>
+  <si>
+    <t>MONEY BANK &amp; FIN MARKETS Tut</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL ECONOMICS Tut</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO TOPOLOGY Tut</t>
   </si>
   <si>
     <t>QUANTUM MECHANICS II Tut</t>
   </si>
   <si>
-    <t>STATISTICAL MECHANICS Tut</t>
-  </si>
-  <si>
-    <t>PLANT PHYSIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>COMPUTER ARCHITECTURE Lab</t>
-  </si>
-  <si>
-    <t>ANIMAL PHYSIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>OPERATING SYSTEMS Tut</t>
-  </si>
-  <si>
-    <t>THEORY OF COMPUTATION Tut</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO TOPOLOGY Tut</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -332,6 +383,27 @@
     <t>Type</t>
   </si>
   <si>
+    <t>OBJECT ORIENTED PROGRAMMING</t>
+  </si>
+  <si>
+    <t>LOGIC IN COMPUTER SC</t>
+  </si>
+  <si>
+    <t>DISCR STRUC FOR COMP SCI</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGG LANG</t>
+  </si>
+  <si>
+    <t>COMPUTER ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>THEORY OF COMPUTATION</t>
+  </si>
+  <si>
+    <t>OPERATING SYSTEMS</t>
+  </si>
+  <si>
     <t>BIOLOGY LABORATORY</t>
   </si>
   <si>
@@ -353,15 +425,6 @@
     <t>INTRODUCTION TO ENVIRONMENTAL STUDIES</t>
   </si>
   <si>
-    <t>OBJECT ORIENTED PROGRAMMING</t>
-  </si>
-  <si>
-    <t>LOGIC IN COMPUTER SC</t>
-  </si>
-  <si>
-    <t>DISCR STRUC FOR COMP SCI</t>
-  </si>
-  <si>
     <t>RECOMBINANT DNA TECH</t>
   </si>
   <si>
@@ -371,18 +434,6 @@
     <t>ANIMAL PHYSIOLOGY</t>
   </si>
   <si>
-    <t>PRINCIPLES OF PROGG LANG</t>
-  </si>
-  <si>
-    <t>COMPUTER ARCHITECTURE</t>
-  </si>
-  <si>
-    <t>THEORY OF COMPUTATION</t>
-  </si>
-  <si>
-    <t>OPERATING SYSTEMS</t>
-  </si>
-  <si>
     <t>CHEMISTRY LABORATORY</t>
   </si>
   <si>
@@ -410,6 +461,27 @@
     <t>INSTRU METHODS OF ANAL</t>
   </si>
   <si>
+    <t>PRINCIPLES OF ECONOMICS</t>
+  </si>
+  <si>
+    <t>FUNDA OF FIN AND ACCOUNT</t>
+  </si>
+  <si>
+    <t>MATHEMATIC &amp; STAT METHOD</t>
+  </si>
+  <si>
+    <t>ECONOMIC ENV OF BUSINESSS</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL ECONOMICS</t>
+  </si>
+  <si>
+    <t>MONEY BANK &amp; FIN MARKETS</t>
+  </si>
+  <si>
+    <t>ISSUES IN ECONOMIC DEVELOPMENT</t>
+  </si>
+  <si>
     <t>MATHEMATICS I</t>
   </si>
   <si>
@@ -464,10 +536,10 @@
     <t>COMPUTATIONAL PHYSICS</t>
   </si>
   <si>
+    <t>Lecture</t>
+  </si>
+  <si>
     <t>Lab</t>
-  </si>
-  <si>
-    <t>Lecture</t>
   </si>
   <si>
     <t>Tut</t>
@@ -828,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -869,17 +941,11 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -900,18 +966,6 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
@@ -950,71 +1004,71 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1022,62 +1076,80 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1085,84 +1157,54 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1187,30 +1229,45 @@
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>23</v>
+      <c r="G52" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -1221,25 +1278,22 @@
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
@@ -1248,6 +1302,87 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1258,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1294,73 +1429,40 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
+      <c r="E4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1372,74 +1474,41 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1459,61 +1528,61 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
+      <c r="D19" t="s">
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1525,48 +1594,51 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
+      <c r="D21" t="s">
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>36</v>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
+      <c r="D23" t="s">
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
@@ -1585,52 +1657,64 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
-        <v>36</v>
+      <c r="D31" t="s">
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1642,25 +1726,25 @@
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
@@ -1685,72 +1769,42 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
       <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1765,14 +1819,11 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -1786,28 +1837,22 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
@@ -1817,13 +1862,10 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1843,64 +1885,49 @@
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
         <v>61</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1912,51 +1939,153 @@
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" t="s">
-        <v>57</v>
+      <c r="E59" t="s">
+        <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F60" t="s">
-        <v>48</v>
+      <c r="D60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1967,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2003,64 +2132,52 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2072,68 +2189,53 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>71</v>
+      <c r="D9" t="s">
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>84</v>
+      <c r="C11" t="s">
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2153,61 +2255,55 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2219,54 +2315,27 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
       <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2274,16 +2343,16 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2303,46 +2372,58 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G29" t="s">
-        <v>77</v>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>77</v>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2354,14 +2435,17 @@
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>77</v>
+      <c r="C33" t="s">
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2369,19 +2453,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2389,19 +2467,16 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2409,16 +2484,16 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2438,62 +2513,47 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>77</v>
-      </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2501,19 +2561,16 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2525,37 +2582,22 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2563,39 +2605,30 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2615,28 +2648,16 @@
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G51" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2644,36 +2665,24 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>77</v>
+      <c r="C54" t="s">
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2681,19 +2690,19 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
         <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2705,20 +2714,14 @@
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" t="s">
-        <v>81</v>
-      </c>
       <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2726,19 +2729,13 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2746,43 +2743,178 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2793,7 +2925,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2897,53 +3029,113 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2951,62 +3143,122 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -3014,62 +3266,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="G41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -3077,58 +3389,241 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="G53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3139,7 +3634,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3147,1267 +3642,1267 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -4416,250 +4911,250 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -4668,208 +5163,208 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -4878,180 +5373,180 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -5060,236 +5555,236 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
         <v>0</v>
@@ -5298,264 +5793,264 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B166" t="s">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B167" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B169" t="s">
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B170" t="s">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B173" t="s">
         <v>0</v>
@@ -5564,203 +6059,567 @@
         <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B176" t="s">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B180" t="s">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B185" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B186" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B187" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
         <v>6</v>
       </c>
-      <c r="D187" t="s">
-        <v>149</v>
+      <c r="D188" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>166</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>166</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>167</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>168</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>170</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>170</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>170</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>171</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>171</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>171</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>171</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>171</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>171</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
